--- a/data/trans_dic/P1401-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P1401-Provincia-trans_dic.xlsx
@@ -646,7 +646,7 @@
         <v>0.00295843495920939</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.009683598719753488</v>
+        <v>0.009683598719753489</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>0.02881418128948544</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.003267860307336232</v>
+        <v>0.003246820567864554</v>
       </c>
       <c r="D5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.002423136517303737</v>
+        <v>0.002701944760331577</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.01143423055990718</v>
+        <v>0.01135328242912227</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.009887141199334494</v>
+        <v>0.01013506906605708</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.005898454741307883</v>
+        <v>0.004676978508600999</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.01044332029537848</v>
+        <v>0.01094832782216293</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.005600937086073324</v>
+        <v>0.005986702642505945</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.005841760630105725</v>
+        <v>0.005561474154406764</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.03464166633204439</v>
+        <v>0.03190283959037484</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.01499355396855161</v>
+        <v>0.01897082523478594</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.02389761014290115</v>
+        <v>0.02422137989377391</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.05783049214163799</v>
+        <v>0.0600872566729455</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.04483295795242256</v>
+        <v>0.04648736650507976</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.02301449364154216</v>
+        <v>0.0223928194760471</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.03895250647718648</v>
+        <v>0.0344231811613199</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.02435078139002137</v>
+        <v>0.02481226988126945</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.01850202935029819</v>
+        <v>0.01895579483613893</v>
       </c>
     </row>
     <row r="7">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.001950890786281461</v>
+        <v>0.001967670705928467</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.002041838225436568</v>
+        <v>0.00204033972226005</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.009008441356188418</v>
+        <v>0.008879642048340373</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.004231393831319689</v>
+        <v>0.00425672367175365</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.002205516602479222</v>
+        <v>0.002067657531941866</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.008906715120780236</v>
+        <v>0.007739621931737346</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.004790379242300749</v>
+        <v>0.004796777581934363</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.003987536383634287</v>
+        <v>0.004058693960055072</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.0106955123592266</v>
+        <v>0.01098051184238982</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.01782564203703272</v>
+        <v>0.01981944416027357</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.01858315099661823</v>
+        <v>0.02013572117294518</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.03669011808637784</v>
+        <v>0.03673122874232839</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.02858776660865454</v>
+        <v>0.02626648004252232</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.02038213968368997</v>
+        <v>0.02021409924489139</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.02676134292334141</v>
+        <v>0.02523588958471535</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.01919982529247559</v>
+        <v>0.0183097875294287</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.01554272484332889</v>
+        <v>0.0157859771912901</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.02571487512072381</v>
+        <v>0.02598288616522503</v>
       </c>
     </row>
     <row r="10">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.006530877529828517</v>
+        <v>0.00632336359297911</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.006191129626650816</v>
+        <v>0.00642495228431829</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.009921736289850885</v>
+        <v>0.0113180658208072</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.00607053120120785</v>
+        <v>0.008587710793473181</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.01860120885933835</v>
+        <v>0.01901553134169602</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.01658111476203255</v>
+        <v>0.0159890038176384</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.009442264539293645</v>
+        <v>0.009347042137792538</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.01556796218005</v>
+        <v>0.0168993902038982</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.01626314065550815</v>
+        <v>0.01606676465949553</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.04761028477433901</v>
+        <v>0.04447933078436284</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.03426201877617632</v>
+        <v>0.03816184083538085</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.03554915907522148</v>
+        <v>0.03840448733111049</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.03859963297398702</v>
+        <v>0.03891360086030016</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.06834283995621422</v>
+        <v>0.06858536597276414</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.04435492982584577</v>
+        <v>0.04117036426397993</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.03395701472549217</v>
+        <v>0.03382429345740538</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.04501544295948046</v>
+        <v>0.04595805666719525</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.03487735968856681</v>
+        <v>0.03388420109992313</v>
       </c>
     </row>
     <row r="13">
@@ -991,7 +991,7 @@
         <v>0.02223285509586905</v>
       </c>
       <c r="K13" s="5" t="n">
-        <v>0.02456473394065987</v>
+        <v>0.02456473394065986</v>
       </c>
     </row>
     <row r="14">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.002584367928389831</v>
+        <v>0.002587916785191211</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.005543780888033448</v>
+        <v>0.006918547598716271</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.009447247157843969</v>
+        <v>0.009389564678591417</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.01666263221305918</v>
+        <v>0.01563738338740766</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.01520358013962385</v>
+        <v>0.01517386958153792</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.01983370029358091</v>
+        <v>0.01879619246071158</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.0116799810135812</v>
+        <v>0.01041714380958257</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.01297584299405767</v>
+        <v>0.01274194829152011</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.01699521713853074</v>
+        <v>0.01665066315669864</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.02271428507001122</v>
+        <v>0.0217264434873026</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.03025773149509362</v>
+        <v>0.03351260242485631</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.03908944378877915</v>
+        <v>0.03729943666035455</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.05427334175370728</v>
+        <v>0.05166078742396153</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.05494473446852725</v>
+        <v>0.05394620855547969</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.04460437338674426</v>
+        <v>0.04346016262492035</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.03361931354247444</v>
+        <v>0.03296778664028036</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.03479714763969924</v>
+        <v>0.0350249588641478</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.03538308442087432</v>
+        <v>0.03496677550773351</v>
       </c>
     </row>
     <row r="16">
@@ -1082,7 +1082,7 @@
         <v>0.01353098050888723</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.02262647610320235</v>
+        <v>0.02262647610320236</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>0.01723486850703934</v>
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.005408063881250482</v>
+        <v>0.009537068905007984</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.004122410895614333</v>
+        <v>0.004198149104096805</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.01000936791406487</v>
+        <v>0.01099675439616084</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.004458495932706507</v>
+        <v>0.004381359904236748</v>
       </c>
       <c r="G17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.02188736122492646</v>
+        <v>0.02162090468634256</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.008942170878986305</v>
+        <v>0.009418345054035139</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.002229745024442117</v>
+        <v>0.002280040297518849</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.01992078276776484</v>
+        <v>0.0186137687409295</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.06365838256646848</v>
+        <v>0.06762724821853594</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.03540133158409451</v>
+        <v>0.03556089863628093</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.04365412163778978</v>
+        <v>0.04396573848731297</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.04883521092906425</v>
+        <v>0.05344387808233324</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.02519451782792724</v>
+        <v>0.02277600977493449</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.05172100464627594</v>
+        <v>0.05105553522365786</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.0443739856345747</v>
+        <v>0.04516858538407615</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.02170477994197173</v>
+        <v>0.02161082111039046</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.0406001948831087</v>
+        <v>0.04106787018965134</v>
       </c>
     </row>
     <row r="19">
@@ -1191,7 +1191,7 @@
         <v>0.003011992879054349</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.02864366634028158</v>
+        <v>0.02864366634028157</v>
       </c>
       <c r="F19" s="5" t="n">
         <v>0.01113265412870544</v>
@@ -1220,31 +1220,31 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.003882835731101394</v>
+        <v>0.003860210766862227</v>
       </c>
       <c r="D20" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.01643702799035249</v>
+        <v>0.01591553228697364</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.003604254756377853</v>
+        <v>0.003595569958202466</v>
       </c>
       <c r="G20" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.01081786144651756</v>
+        <v>0.0122900940337256</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.005693727013558053</v>
+        <v>0.005726307972157366</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>0</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.01721712414932098</v>
+        <v>0.01667543550495055</v>
       </c>
     </row>
     <row r="21">
@@ -1255,31 +1255,31 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.03879757710159672</v>
+        <v>0.03895024265308957</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.01450187712481791</v>
+        <v>0.01401799152422557</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.04422899826031677</v>
+        <v>0.04591410512990311</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.03208408663408241</v>
+        <v>0.03286400029261979</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.02353303195389635</v>
+        <v>0.02829469154273569</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.03759095676437488</v>
+        <v>0.03739323557653836</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.02589406984712042</v>
+        <v>0.02662255988882935</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.01403820367396457</v>
+        <v>0.01283034491101054</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.0372659131915116</v>
+        <v>0.03715333330982198</v>
       </c>
     </row>
     <row r="22">
@@ -1300,7 +1300,7 @@
         <v>0.007121347102363434</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.02583282639808008</v>
+        <v>0.02583282639808007</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>0.0276457262839108</v>
@@ -1329,31 +1329,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.002943724912254493</v>
+        <v>0.002951379383241975</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.002726200758514614</v>
+        <v>0.00271586814006572</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.01602791993735796</v>
+        <v>0.01674773396309199</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.01669702187216734</v>
+        <v>0.01636505169645281</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.01374083393367048</v>
+        <v>0.01255838879334423</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.009827030455261296</v>
+        <v>0.009564449325543274</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.01117190342517766</v>
+        <v>0.01166620003220917</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.00938743920859913</v>
+        <v>0.009590152382558573</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.0145809348903774</v>
+        <v>0.01463776096048007</v>
       </c>
     </row>
     <row r="24">
@@ -1364,31 +1364,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.01781976136360009</v>
+        <v>0.01607841146140461</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.01677952166310842</v>
+        <v>0.01661993148705693</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.03939993643512409</v>
+        <v>0.04001477341195382</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.0446724352456468</v>
+        <v>0.04382743263598798</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.03914132331083259</v>
+        <v>0.03626809794837706</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.02474589257070011</v>
+        <v>0.02488420005062078</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.02665922812895615</v>
+        <v>0.02687566584773603</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.02353098057181354</v>
+        <v>0.02307954216516142</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.02834654240831589</v>
+        <v>0.02856564791606419</v>
       </c>
     </row>
     <row r="25">
@@ -1427,7 +1427,7 @@
         <v>0.01441977831197502</v>
       </c>
       <c r="K25" s="5" t="n">
-        <v>0.02570103462773758</v>
+        <v>0.02570103462773759</v>
       </c>
     </row>
     <row r="26">
@@ -1438,31 +1438,31 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.004155880785134926</v>
+        <v>0.004374657450678898</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.002383334967609303</v>
+        <v>0.002373607095598229</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.01215734746099389</v>
+        <v>0.01293663980421731</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.008808120932550793</v>
+        <v>0.00796715311651641</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.01339112507653512</v>
+        <v>0.01290350001277701</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.02209081100738047</v>
+        <v>0.02190141106125064</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.008090170794324817</v>
+        <v>0.007715533587296233</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.009005718418795253</v>
+        <v>0.009230335560118168</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.02011772732579853</v>
+        <v>0.01940082873040299</v>
       </c>
     </row>
     <row r="27">
@@ -1473,31 +1473,31 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.01967088082824329</v>
+        <v>0.01942051206713687</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.01665563929585917</v>
+        <v>0.01572718080500528</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.03214801042277503</v>
+        <v>0.03379127455542081</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.02641408642505379</v>
+        <v>0.02677285479408217</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.0337786974890051</v>
+        <v>0.0342039530556382</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.04043715757770027</v>
+        <v>0.0409572986896334</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.01959217973451071</v>
+        <v>0.0196037178419449</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.02133031327340974</v>
+        <v>0.02150285632540595</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.03388073068391723</v>
+        <v>0.03333650513823447</v>
       </c>
     </row>
     <row r="28">
@@ -1518,7 +1518,7 @@
         <v>0.008759891864754007</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>0.0211367975075312</v>
+        <v>0.02113679750753121</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>0.02014494967712189</v>
@@ -1536,7 +1536,7 @@
         <v>0.01453899265530997</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>0.02196403072294269</v>
+        <v>0.02196403072294268</v>
       </c>
     </row>
     <row r="29">
@@ -1547,31 +1547,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.008059799138195253</v>
+        <v>0.008098023121163835</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.005875129054632713</v>
+        <v>0.006012663502166194</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.01672744122566788</v>
+        <v>0.01712862388300899</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.01563507143042243</v>
+        <v>0.01555557253733681</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.01552466136360415</v>
+        <v>0.0155609749644652</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.01960948639670532</v>
+        <v>0.01940096895507384</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.01301943790997223</v>
+        <v>0.01306309214784829</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.01164178854685763</v>
+        <v>0.01181961781437155</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.01888243783869211</v>
+        <v>0.01929137887073013</v>
       </c>
     </row>
     <row r="30">
@@ -1582,31 +1582,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.01617597474595156</v>
+        <v>0.01564549599607374</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.01213118422083618</v>
+        <v>0.01233062206713025</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.02544391999231321</v>
+        <v>0.02591787712276243</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.02557017915098592</v>
+        <v>0.02571390034372019</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.02578182698676238</v>
+        <v>0.02547279040303148</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.02718458507051721</v>
+        <v>0.02728888186621466</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.01918661199189271</v>
+        <v>0.01932570415121194</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.01754400291887724</v>
+        <v>0.01783899248062969</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.02481949213045919</v>
+        <v>0.02519666334247721</v>
       </c>
     </row>
     <row r="31">
@@ -1839,31 +1839,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>963</v>
+        <v>957</v>
       </c>
       <c r="D6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>773</v>
+        <v>862</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>3284</v>
+        <v>3261</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>2854</v>
+        <v>2926</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1864</v>
+        <v>1478</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>6078</v>
+        <v>6372</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>3262</v>
+        <v>3487</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>3709</v>
+        <v>3531</v>
       </c>
     </row>
     <row r="7">
@@ -1874,31 +1874,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>10210</v>
+        <v>9403</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>4405</v>
+        <v>5573</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>7620</v>
+        <v>7723</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>16612</v>
+        <v>17260</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>12943</v>
+        <v>13421</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>7274</v>
+        <v>7077</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>22670</v>
+        <v>20034</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>14183</v>
+        <v>14452</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>11747</v>
+        <v>12035</v>
       </c>
     </row>
     <row r="8">
@@ -1983,31 +1983,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>986</v>
+        <v>995</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>4763</v>
+        <v>4695</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>2216</v>
+        <v>2230</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>1154</v>
+        <v>1082</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>4861</v>
+        <v>4224</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>4931</v>
+        <v>4937</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>4090</v>
+        <v>4163</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>11493</v>
+        <v>11799</v>
       </c>
     </row>
     <row r="11">
@@ -2018,31 +2018,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>9011</v>
+        <v>10019</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>9339</v>
+        <v>10120</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>19399</v>
+        <v>19420</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>14973</v>
+        <v>13757</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>10662</v>
+        <v>10574</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>14607</v>
+        <v>13774</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>19762</v>
+        <v>18846</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>15942</v>
+        <v>16191</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>27631</v>
+        <v>27919</v>
       </c>
     </row>
     <row r="12">
@@ -2127,31 +2127,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>2116</v>
+        <v>2049</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>1972</v>
+        <v>2047</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>3135</v>
+        <v>3576</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>2070</v>
+        <v>2929</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>6256</v>
+        <v>6395</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>5909</v>
+        <v>5698</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>6280</v>
+        <v>6216</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>10195</v>
+        <v>11067</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>10935</v>
+        <v>10803</v>
       </c>
     </row>
     <row r="15">
@@ -2162,31 +2162,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>15428</v>
+        <v>14413</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>10915</v>
+        <v>12157</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>11233</v>
+        <v>12136</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>13163</v>
+        <v>13270</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>22984</v>
+        <v>23066</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>15807</v>
+        <v>14672</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>22584</v>
+        <v>22495</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>29479</v>
+        <v>30097</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>23451</v>
+        <v>22783</v>
       </c>
     </row>
     <row r="16">
@@ -2271,31 +2271,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>2051</v>
+        <v>2560</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>3525</v>
+        <v>3504</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>6481</v>
+        <v>6082</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>5888</v>
+        <v>5877</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>8369</v>
+        <v>7931</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>8911</v>
+        <v>7948</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>9826</v>
+        <v>9649</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>13513</v>
+        <v>13239</v>
       </c>
     </row>
     <row r="19">
@@ -2306,31 +2306,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>8495</v>
+        <v>8125</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>11194</v>
+        <v>12398</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>14586</v>
+        <v>13918</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>21110</v>
+        <v>20094</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>21279</v>
+        <v>20892</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>18821</v>
+        <v>18338</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>25649</v>
+        <v>25152</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>26350</v>
+        <v>26523</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>28133</v>
+        <v>27802</v>
       </c>
     </row>
     <row r="20">
@@ -2415,31 +2415,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>1150</v>
+        <v>2028</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>871</v>
+        <v>887</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>2059</v>
+        <v>2262</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>979</v>
+        <v>962</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>4956</v>
+        <v>4895</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>3865</v>
+        <v>4071</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>958</v>
+        <v>980</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>8607</v>
+        <v>8043</v>
       </c>
     </row>
     <row r="23">
@@ -2450,31 +2450,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>13535</v>
+        <v>14379</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>7478</v>
+        <v>7511</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>8978</v>
+        <v>9042</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>10724</v>
+        <v>11736</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>5507</v>
+        <v>4979</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>11710</v>
+        <v>11560</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>19179</v>
+        <v>19522</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>9329</v>
+        <v>9289</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>17543</v>
+        <v>17745</v>
       </c>
     </row>
     <row r="24">
@@ -2559,31 +2559,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>1064</v>
+        <v>1058</v>
       </c>
       <c r="D26" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>4450</v>
+        <v>4308</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>2846</v>
+        <v>3234</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>3143</v>
+        <v>3161</v>
       </c>
       <c r="J26" s="6" t="n">
         <v>0</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>9191</v>
+        <v>8901</v>
       </c>
     </row>
     <row r="27">
@@ -2594,31 +2594,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>10630</v>
+        <v>10672</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>3816</v>
+        <v>3688</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>11973</v>
+        <v>12429</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>8922</v>
+        <v>9139</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>6427</v>
+        <v>7728</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>9890</v>
+        <v>9838</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>14296</v>
+        <v>14698</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>7528</v>
+        <v>6880</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>19893</v>
+        <v>19833</v>
       </c>
     </row>
     <row r="28">
@@ -2703,31 +2703,31 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>1951</v>
+        <v>1956</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>1790</v>
+        <v>1783</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>11452</v>
+        <v>11967</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>11585</v>
+        <v>11355</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>9499</v>
+        <v>8682</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>7553</v>
+        <v>7351</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>15156</v>
+        <v>15827</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>12653</v>
+        <v>12926</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>21625</v>
+        <v>21709</v>
       </c>
     </row>
     <row r="31">
@@ -2738,31 +2738,31 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>11811</v>
+        <v>10657</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>11017</v>
+        <v>10912</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>28152</v>
+        <v>28592</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>30996</v>
+        <v>30410</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>27058</v>
+        <v>25072</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>19019</v>
+        <v>19125</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>36167</v>
+        <v>36461</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>31716</v>
+        <v>31108</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>42040</v>
+        <v>42365</v>
       </c>
     </row>
     <row r="32">
@@ -2847,31 +2847,31 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>3238</v>
+        <v>3408</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>1856</v>
+        <v>1848</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>9694</v>
+        <v>10316</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>7245</v>
+        <v>6554</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>11063</v>
+        <v>10660</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>18349</v>
+        <v>18192</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>12958</v>
+        <v>12358</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>14452</v>
+        <v>14812</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>32752</v>
+        <v>31585</v>
       </c>
     </row>
     <row r="35">
@@ -2882,31 +2882,31 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>15326</v>
+        <v>15130</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>12968</v>
+        <v>12245</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>25635</v>
+        <v>26945</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>21728</v>
+        <v>22023</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>27907</v>
+        <v>28258</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>33587</v>
+        <v>34020</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>31380</v>
+        <v>31399</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>34230</v>
+        <v>34507</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>55158</v>
+        <v>54272</v>
       </c>
     </row>
     <row r="36">
@@ -2991,31 +2991,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>27619</v>
+        <v>27750</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>19942</v>
+        <v>20409</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>58964</v>
+        <v>60378</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>55584</v>
+        <v>55302</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>55028</v>
+        <v>55157</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>73122</v>
+        <v>72344</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>90900</v>
+        <v>91205</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>80781</v>
+        <v>82015</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>136971</v>
+        <v>139938</v>
       </c>
     </row>
     <row r="39">
@@ -3026,31 +3026,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>55431</v>
+        <v>53614</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>41177</v>
+        <v>41854</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>89690</v>
+        <v>91361</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>90904</v>
+        <v>91415</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>91385</v>
+        <v>90289</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>101369</v>
+        <v>101757</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>133959</v>
+        <v>134930</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>121736</v>
+        <v>123783</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>180038</v>
+        <v>182774</v>
       </c>
     </row>
     <row r="40">
